--- a/CashFlow/GH_cashflow.xlsx
+++ b/CashFlow/GH_cashflow.xlsx
@@ -318,19 +318,19 @@
         </is>
       </c>
       <c r="B6" s="0" t="n">
-        <v>96000000.0</v>
+        <v>-7535000.0</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>88000000.0</v>
+        <v>-12971000.0</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>59416000.0</v>
+        <v>-6178000.0</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>35496000.0</v>
+        <v>-14892000.0</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>9376000.0</v>
+        <v>-6045000.0</v>
       </c>
       <c r="G6" s="0" t="n">
         <v>-7685000.0</v>
@@ -412,10 +412,10 @@
         </is>
       </c>
       <c r="B8" s="0" t="n">
-        <v>-7859000.0</v>
+        <v>65000000.0</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>4761000.0</v>
+        <v>74000000.0</v>
       </c>
       <c r="D8" s="0" t="inlineStr">
         <is>
